--- a/outputs/f__Atopobiaceae.xlsx
+++ b/outputs/f__Atopobiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,65 +442,55 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>1-g__Atopobium</t>
+          <t>1-g__Lancefieldella</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>2-g__Fannyhessea</t>
+          <t>2-g__Olegusella</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>3-g__Lancefieldella</t>
+          <t>3-g__Olsenella</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>4-g__Olegusella</t>
+          <t>4-g__Olsenella_B</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>5-g__Olsenella</t>
+          <t>5-g__Olsenella_E</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>6-g__Olsenella_B</t>
+          <t>6-g__Parolsenella</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>7-g__Olsenella_E</t>
+          <t>7-g__RUG001</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8-g__Parolsenella</t>
+          <t>8-g__UBA1367</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>9-g__UBA7741</t>
+          <t>max</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>10-g__UBA7748</t>
+          <t>prediction</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>max</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>prediction</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -513,46 +503,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1207993488244034</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>2.359708334642096e-11</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>2.359708334642095e-11</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>2.359708334642094e-11</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.4701226515616524</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.4090779994487646</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2.35970833464209e-11</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>2.35970833464209e-11</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>2.35970833464209e-11</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.359708334642095e-11</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.4701226515616524</v>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>g__Olsenella</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>g__Olsenella</t>
+        <v>1</v>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>g__RUG001</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>g__RUG001</t>
         </is>
       </c>
     </row>
@@ -563,46 +547,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.08984741909623946</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08980251137462884</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.08980251137462884</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08980251137462884</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.08980251137462884</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1768003165440394</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0.08980251137462884</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.08980251137462884</v>
+        <v>1</v>
       </c>
       <c r="J3" t="n">
-        <v>0.1047346847373199</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.08980251137462802</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.1768003165440394</v>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
+        <v>1</v>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>g__UBA1367</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>g__UBA1367</t>
         </is>
       </c>
     </row>
@@ -613,46 +591,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>8.420510944508414e-12</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.05800852397893228</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>2.220032960103169e-14</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.9419914760124919</v>
-      </c>
-      <c r="K4" t="n">
-        <v>2.220032960103169e-14</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.9419914760124919</v>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>g__UBA7741</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>g__UBA7741</t>
+        <v>1</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>g__Olsenella_B</t>
         </is>
       </c>
     </row>
@@ -663,44 +635,38 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2.616230420118906e-08</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>2.21998779504101e-14</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>2.21998779504101e-14</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9899951485378977</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.21998779504101e-14</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01000482529964267</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>2.21998779504101e-14</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>2.21998779504101e-14</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>2.21998779504101e-14</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2.21998779504101e-14</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.9899951485378977</v>
-      </c>
-      <c r="M5" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K5" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
+      <c r="L5" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
@@ -713,44 +679,38 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1888510681077036</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.009778514621318084</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.009778514621318067</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.009778514621318053</v>
+        <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.009778514621318065</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.732920814921752</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00977851462131803</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009778514621318053</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.009778514621318053</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.009778514621318084</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.732920814921752</v>
-      </c>
-      <c r="M6" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K6" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
@@ -763,46 +723,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.1965092213025326</v>
+        <v>0.125</v>
       </c>
       <c r="C7" t="n">
-        <v>2.131776221868024e-07</v>
+        <v>0.125</v>
       </c>
       <c r="D7" t="n">
-        <v>2.131776221868025e-07</v>
+        <v>0.125</v>
       </c>
       <c r="E7" t="n">
-        <v>2.131776221868024e-07</v>
+        <v>0.125</v>
       </c>
       <c r="F7" t="n">
-        <v>0.4776939495437779</v>
+        <v>0.125</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3257953369103342</v>
+        <v>0.125</v>
       </c>
       <c r="H7" t="n">
-        <v>2.131776221868025e-07</v>
+        <v>0.125</v>
       </c>
       <c r="I7" t="n">
-        <v>2.131776221868025e-07</v>
+        <v>0.125</v>
       </c>
       <c r="J7" t="n">
-        <v>2.131776221868025e-07</v>
-      </c>
-      <c r="K7" t="n">
-        <v>2.131776221868028e-07</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.4776939495437779</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>g__Olsenella</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>g__Olsenella</t>
+        <v>0.125</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>g__Lancefieldella</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>g__Lancefieldella</t>
         </is>
       </c>
     </row>
@@ -813,44 +767,38 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9.437158637785536e-08</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2.219991762434589e-14</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>2.219991762434589e-14</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9865956670708839</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>2.219991762434589e-14</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01340423855737436</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2.219991762434589e-14</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>2.219991762434589e-14</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>2.219991762434589e-14</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.219991762434589e-14</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.9865956670708839</v>
-      </c>
-      <c r="M8" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K8" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
@@ -863,46 +811,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.09252471475059125</v>
+        <v>0.1120156910856197</v>
       </c>
       <c r="C9" t="n">
-        <v>0.09227534229561243</v>
+        <v>0.1120156910856197</v>
       </c>
       <c r="D9" t="n">
-        <v>0.09227534229561245</v>
+        <v>0.1120156910856197</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09227534229561243</v>
+        <v>0.1120156910856198</v>
       </c>
       <c r="F9" t="n">
-        <v>0.09227534229561243</v>
+        <v>0.1120156910856198</v>
       </c>
       <c r="G9" t="n">
-        <v>0.154364682763882</v>
+        <v>0.1120156910856198</v>
       </c>
       <c r="H9" t="n">
-        <v>0.09227534229561248</v>
+        <v>0.1120156910856198</v>
       </c>
       <c r="I9" t="n">
-        <v>0.09227534229561248</v>
+        <v>0.2158901624006615</v>
       </c>
       <c r="J9" t="n">
-        <v>0.1071832064162395</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.09227534229561249</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.154364682763882</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
+        <v>0.2158901624006615</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>g__UBA1367</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>g__UBA1367</t>
         </is>
       </c>
     </row>
@@ -913,44 +855,38 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.272278326568737e-09</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>2.219990935848377e-14</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>2.219990935848377e-14</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>2.219990935848377e-14</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9858612991065491</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01413869962101711</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>2.219990935848377e-14</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>2.219990935848377e-14</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.219990935848377e-14</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.219990935848377e-14</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.9858612991065491</v>
-      </c>
-      <c r="M10" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K10" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -963,44 +899,38 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.561366423835547e-07</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>2.219998502561204e-14</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>2.219998502561204e-14</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
-        <v>2.219998502561204e-14</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9797737603903613</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.02022608347284086</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>2.219998502561204e-14</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>2.219998502561204e-14</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.219998502561204e-14</v>
-      </c>
-      <c r="K11" t="n">
-        <v>2.219998502561204e-14</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0.9797737603903613</v>
-      </c>
-      <c r="M11" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K11" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1013,44 +943,38 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.007532448896014e-09</v>
+        <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>2.220009246698931e-14</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>2.220009246698931e-14</v>
+        <v>1</v>
       </c>
       <c r="E12" t="n">
-        <v>2.220009246698931e-14</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9689445703024477</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03105542668986433</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>2.220009246698931e-14</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2.220009246698931e-14</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>2.220009246698931e-14</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.220009246698931e-14</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0.9689445703024477</v>
-      </c>
-      <c r="M12" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K12" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1063,44 +987,38 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.248294133159751e-09</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>2.219997520815849e-14</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>2.219997520815849e-14</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
-        <v>2.219997520815849e-14</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9810973613375554</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01890263741399506</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>2.219997520815849e-14</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2.219997520815849e-14</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.219997520815849e-14</v>
-      </c>
-      <c r="K13" t="n">
-        <v>2.219997520815849e-14</v>
-      </c>
-      <c r="L13" t="n">
-        <v>0.9810973613375554</v>
-      </c>
-      <c r="M13" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K13" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1113,44 +1031,38 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.654396112753773e-09</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>2.220001655993437e-14</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.977969920681442</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02203007666400644</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>2.220001655993437e-14</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>2.220001655993437e-14</v>
-      </c>
-      <c r="K14" t="n">
-        <v>2.220001655993437e-14</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0.977969920681442</v>
-      </c>
-      <c r="M14" t="inlineStr">
+        <v>1</v>
+      </c>
+      <c r="K14" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1163,44 +1075,38 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.2165960760229068</v>
+        <v>0.1111379447220397</v>
       </c>
       <c r="C15" t="n">
-        <v>0.05641522160445282</v>
+        <v>0.1111379447220397</v>
       </c>
       <c r="D15" t="n">
-        <v>0.05641522160445282</v>
+        <v>0.1111379447220397</v>
       </c>
       <c r="E15" t="n">
-        <v>0.05641522160445282</v>
+        <v>0.2220343869457226</v>
       </c>
       <c r="F15" t="n">
-        <v>0.05641522160445277</v>
+        <v>0.1111379447220397</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3320821511414708</v>
+        <v>0.1111379447220396</v>
       </c>
       <c r="H15" t="n">
-        <v>0.05641522160445282</v>
+        <v>0.1111379447220396</v>
       </c>
       <c r="I15" t="n">
-        <v>0.05641522160445277</v>
+        <v>0.1111379447220396</v>
       </c>
       <c r="J15" t="n">
-        <v>0.05641522160445282</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.05641522160445282</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0.3320821511414708</v>
-      </c>
-      <c r="M15" t="inlineStr">
+        <v>0.2220343869457226</v>
+      </c>
+      <c r="K15" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>

--- a/outputs/f__Atopobiaceae.xlsx
+++ b/outputs/f__Atopobiaceae.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,20 +477,35 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>8-g__UBA1367</t>
+          <t>8-g__RUG033</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
+          <t>9-g__RUG440</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>10-g__UBA1367</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>11-g__UBA7741</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
           <t>max</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>prediction</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>rejection-f</t>
         </is>
@@ -527,14 +542,23 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K2" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="inlineStr">
         <is>
           <t>g__RUG001</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>g__RUG001</t>
         </is>
@@ -568,17 +592,26 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
-      </c>
-      <c r="K3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="inlineStr">
         <is>
           <t>g__UBA1367</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>g__UBA1367</t>
         </is>
@@ -600,7 +633,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -615,16 +648,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>g__Olsenella_B</t>
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>g__UBA7741</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>g__UBA7741</t>
         </is>
       </c>
     </row>
@@ -659,14 +701,23 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
-      </c>
-      <c r="K5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
@@ -703,14 +754,23 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
@@ -723,40 +783,49 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.125</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.125</v>
+        <v>1</v>
       </c>
       <c r="J7" t="n">
-        <v>0.125</v>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>g__Lancefieldella</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>g__Lancefieldella</t>
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>g__RUG033</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>g__RUG033</t>
         </is>
       </c>
     </row>
@@ -791,14 +860,23 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>g__Olegusella</t>
         </is>
@@ -811,40 +889,49 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.1120156910856197</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1120156910856197</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1120156910856197</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.1120156910856198</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1120156910856198</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1120156910856198</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0.1120156910856198</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0.2158901624006615</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.2158901624006615</v>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>g__UBA1367</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>g__UBA1367</t>
+        <v>1</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>g__RUG440</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>g__RUG440</t>
         </is>
       </c>
     </row>
@@ -879,14 +966,23 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>1</v>
+      </c>
+      <c r="N10" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -923,14 +1019,23 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
-      </c>
-      <c r="K11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -967,14 +1072,23 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1011,14 +1125,23 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>1</v>
-      </c>
-      <c r="K13" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1055,14 +1178,23 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1</v>
-      </c>
-      <c r="K14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>g__Olsenella</t>
         </is>
@@ -1075,38 +1207,47 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.1111379447220397</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1111379447220397</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1111379447220397</v>
+        <v>0.07583157683763909</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2220343869457226</v>
+        <v>0.9241684231621612</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1111379447220397</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1111379447220396</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1111379447220396</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="I15" t="n">
-        <v>0.1111379447220396</v>
+        <v>2.220071769582693e-14</v>
       </c>
       <c r="J15" t="n">
-        <v>0.2220343869457226</v>
-      </c>
-      <c r="K15" t="inlineStr">
+        <v>2.220071769582693e-14</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.220071769582693e-14</v>
+      </c>
+      <c r="L15" t="n">
+        <v>2.220071769582693e-14</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0.9241684231621612</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>g__Olsenella_B</t>
         </is>
